--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.42299023231765</v>
+        <v>1.625493333333333</v>
       </c>
       <c r="H2">
-        <v>1.42299023231765</v>
+        <v>4.87648</v>
       </c>
       <c r="I2">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="J2">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N2">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q2">
-        <v>59.76492371553397</v>
+        <v>86.00534587480888</v>
       </c>
       <c r="R2">
-        <v>59.76492371553397</v>
+        <v>774.0481128732799</v>
       </c>
       <c r="S2">
-        <v>0.0486843035788426</v>
+        <v>0.06112273487872454</v>
       </c>
       <c r="T2">
-        <v>0.0486843035788426</v>
+        <v>0.06112273487872456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.42299023231765</v>
+        <v>1.625493333333333</v>
       </c>
       <c r="H3">
-        <v>1.42299023231765</v>
+        <v>4.87648</v>
       </c>
       <c r="I3">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="J3">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N3">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q3">
-        <v>66.76936815870259</v>
+        <v>76.82090975377776</v>
       </c>
       <c r="R3">
-        <v>66.76936815870259</v>
+        <v>691.3881877839999</v>
       </c>
       <c r="S3">
-        <v>0.05439010019786723</v>
+        <v>0.05459549115536903</v>
       </c>
       <c r="T3">
-        <v>0.05439010019786723</v>
+        <v>0.05459549115536904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.42299023231765</v>
+        <v>1.625493333333333</v>
       </c>
       <c r="H4">
-        <v>1.42299023231765</v>
+        <v>4.87648</v>
       </c>
       <c r="I4">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="J4">
-        <v>0.1338152778937103</v>
+        <v>0.1468796758507528</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N4">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q4">
-        <v>37.73754293467581</v>
+        <v>43.84704438961778</v>
       </c>
       <c r="R4">
-        <v>37.73754293467581</v>
+        <v>394.62339950656</v>
       </c>
       <c r="S4">
-        <v>0.03074087411700044</v>
+        <v>0.0311614498166592</v>
       </c>
       <c r="T4">
-        <v>0.03074087411700044</v>
+        <v>0.0311614498166592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.98987008080702</v>
+        <v>5.041193333333333</v>
       </c>
       <c r="H5">
-        <v>4.98987008080702</v>
+        <v>15.12358</v>
       </c>
       <c r="I5">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="J5">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N5">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q5">
-        <v>209.5722078458275</v>
+        <v>266.7310701090422</v>
       </c>
       <c r="R5">
-        <v>209.5722078458275</v>
+        <v>2400.57963098138</v>
       </c>
       <c r="S5">
-        <v>0.1707168076883641</v>
+        <v>0.1895618500962131</v>
       </c>
       <c r="T5">
-        <v>0.1707168076883641</v>
+        <v>0.1895618500962131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.98987008080702</v>
+        <v>5.041193333333333</v>
       </c>
       <c r="H6">
-        <v>4.98987008080702</v>
+        <v>15.12358</v>
       </c>
       <c r="I6">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="J6">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N6">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q6">
-        <v>234.1340544178285</v>
+        <v>238.2470910029444</v>
       </c>
       <c r="R6">
-        <v>234.1340544178285</v>
+        <v>2144.2238190265</v>
       </c>
       <c r="S6">
-        <v>0.1907248043631335</v>
+        <v>0.1693187049116404</v>
       </c>
       <c r="T6">
-        <v>0.1907248043631335</v>
+        <v>0.1693187049116404</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.98987008080702</v>
+        <v>5.041193333333333</v>
       </c>
       <c r="H7">
-        <v>4.98987008080702</v>
+        <v>15.12358</v>
       </c>
       <c r="I7">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="J7">
-        <v>0.469237831962608</v>
+        <v>0.4555225343081337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N7">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q7">
-        <v>132.3308004062774</v>
+        <v>135.9842106580844</v>
       </c>
       <c r="R7">
-        <v>132.3308004062774</v>
+        <v>1223.85789592276</v>
       </c>
       <c r="S7">
-        <v>0.1077962199111104</v>
+        <v>0.09664197930028026</v>
       </c>
       <c r="T7">
-        <v>0.1077962199111104</v>
+        <v>0.09664197930028028</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.22112897954738</v>
+        <v>4.400149666666667</v>
       </c>
       <c r="H8">
-        <v>4.22112897954738</v>
+        <v>13.200449</v>
       </c>
       <c r="I8">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="J8">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N8">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q8">
-        <v>177.2854414082613</v>
+        <v>232.8132550421154</v>
       </c>
       <c r="R8">
-        <v>177.2854414082613</v>
+        <v>2095.319295379039</v>
       </c>
       <c r="S8">
-        <v>0.1444161175660557</v>
+        <v>0.1654569575815188</v>
       </c>
       <c r="T8">
-        <v>0.1444161175660557</v>
+        <v>0.1654569575815188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.22112897954738</v>
+        <v>4.400149666666667</v>
       </c>
       <c r="H9">
-        <v>4.22112897954738</v>
+        <v>13.200449</v>
       </c>
       <c r="I9">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="J9">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N9">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q9">
-        <v>198.063281447636</v>
+        <v>207.9513299220638</v>
       </c>
       <c r="R9">
-        <v>198.063281447636</v>
+        <v>1871.561969298575</v>
       </c>
       <c r="S9">
-        <v>0.1613416753899776</v>
+        <v>0.1477879529140692</v>
       </c>
       <c r="T9">
-        <v>0.1613416753899776</v>
+        <v>0.1477879529140692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.22112897954738</v>
+        <v>4.400149666666667</v>
       </c>
       <c r="H10">
-        <v>4.22112897954738</v>
+        <v>13.200449</v>
       </c>
       <c r="I10">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="J10">
-        <v>0.3969468901436817</v>
+        <v>0.3975977898411136</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N10">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q10">
-        <v>111.9438717713662</v>
+        <v>118.6923094662309</v>
       </c>
       <c r="R10">
-        <v>111.9438717713662</v>
+        <v>1068.230785196078</v>
       </c>
       <c r="S10">
-        <v>0.09118909718764838</v>
+        <v>0.08435287934552568</v>
       </c>
       <c r="T10">
-        <v>0.09118909718764838</v>
+        <v>0.08435287934552568</v>
       </c>
     </row>
   </sheetData>
